--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FYP\Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Long Term" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -85,19 +85,16 @@
     <t>Learn about the Oculus Rift development capabilities</t>
   </si>
   <si>
-    <t>Phase 1 - Learning and Understanding</t>
+    <t>Documentation</t>
   </si>
   <si>
-    <t>Phase 3 - Prototyping2: Output</t>
+    <t>Phase 3 - Project Deliverable</t>
   </si>
   <si>
-    <t>Phase 2 - Prototyping 1: Input</t>
+    <t>Phase 1 - Input Devices</t>
   </si>
   <si>
-    <t>Phase 4 - Project Development</t>
-  </si>
-  <si>
-    <t>Documentation</t>
+    <t>Phase 2 - Output Devices</t>
   </si>
 </sst>
 </file>
@@ -204,22 +201,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:f>Sheet1!$A$20:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Phase 1 - Learning and Understanding</c:v>
+                  <c:v>Phase 1 - Input Devices</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Phase 2 - Prototyping 1: Input</c:v>
+                  <c:v>Phase 2 - Output Devices</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Phase 3 - Prototyping2: Output</c:v>
+                  <c:v>Phase 3 - Project Deliverable</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Phase 4 - Project Development</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Documentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -227,23 +221,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$24</c:f>
+              <c:f>Sheet1!$B$20:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>mmm</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>42653</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42674</c:v>
+                  <c:v>42695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42723</c:v>
+                  <c:v>42751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42765</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>42683</c:v>
                 </c:pt>
               </c:numCache>
@@ -281,22 +272,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:f>Sheet1!$A$20:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Phase 1 - Learning and Understanding</c:v>
+                  <c:v>Phase 1 - Input Devices</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Phase 2 - Prototyping 1: Input</c:v>
+                  <c:v>Phase 2 - Output Devices</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Phase 3 - Prototyping2: Output</c:v>
+                  <c:v>Phase 3 - Project Deliverable</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Phase 4 - Project Development</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Documentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -304,24 +292,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$24</c:f>
+              <c:f>Sheet1!$C$20:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,7 +457,8 @@
         <c:crossAx val="46363392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="30"/>
+        <c:majorUnit val="29"/>
+        <c:minorUnit val="7"/>
       </c:valAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
@@ -859,7 +845,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1615,7 +1601,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0"/>
+    <sheetView zoomScale="104" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1996,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,32 +2241,32 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
-        <v>42653</v>
+        <v>42646</v>
       </c>
       <c r="C20">
-        <f>D20-B20</f>
-        <v>49</v>
+        <f t="shared" ref="C20:C23" si="2">D20-B20</f>
+        <v>84</v>
       </c>
       <c r="D20" s="1">
-        <v>42702</v>
+        <v>42730</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>42674</v>
+        <v>42695</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C24" si="2">D21-B21</f>
-        <v>63</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="D21" s="1">
-        <v>42737</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2288,44 +2274,29 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>42723</v>
+        <v>42751</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1">
-        <v>42779</v>
+        <v>42849</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3">
-        <v>42765</v>
+        <v>42683</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="D23" s="1">
-        <v>42828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>42683</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-      <c r="D24" s="1">
-        <v>42870</v>
+        <v>42856</v>
       </c>
     </row>
   </sheetData>
